--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01542466666666666</v>
+        <v>0.02923533333333334</v>
       </c>
       <c r="H2">
-        <v>0.046274</v>
+        <v>0.08770600000000001</v>
       </c>
       <c r="I2">
-        <v>0.006030344593912184</v>
+        <v>0.01201286672177323</v>
       </c>
       <c r="J2">
-        <v>0.006030344593912185</v>
+        <v>0.01201286672177324</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>1.502669036884666</v>
+        <v>2.697047527588667</v>
       </c>
       <c r="R2">
-        <v>13.524021331962</v>
+        <v>24.273427748298</v>
       </c>
       <c r="S2">
-        <v>0.002081243520084991</v>
+        <v>0.003429325297128823</v>
       </c>
       <c r="T2">
-        <v>0.002081243520084991</v>
+        <v>0.003429325297128823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01542466666666666</v>
+        <v>0.02923533333333334</v>
       </c>
       <c r="H3">
-        <v>0.046274</v>
+        <v>0.08770600000000001</v>
       </c>
       <c r="I3">
-        <v>0.006030344593912184</v>
+        <v>0.01201286672177323</v>
       </c>
       <c r="J3">
-        <v>0.006030344593912185</v>
+        <v>0.01201286672177324</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>0.5385188885373333</v>
+        <v>1.020688456542667</v>
       </c>
       <c r="R3">
-        <v>4.846669996836</v>
+        <v>9.186196108884001</v>
       </c>
       <c r="S3">
-        <v>0.0007458654698411276</v>
+        <v>0.001297816485880992</v>
       </c>
       <c r="T3">
-        <v>0.0007458654698411274</v>
+        <v>0.001297816485880992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01542466666666666</v>
+        <v>0.02923533333333334</v>
       </c>
       <c r="H4">
-        <v>0.046274</v>
+        <v>0.08770600000000001</v>
       </c>
       <c r="I4">
-        <v>0.006030344593912184</v>
+        <v>0.01201286672177323</v>
       </c>
       <c r="J4">
-        <v>0.006030344593912185</v>
+        <v>0.01201286672177324</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>0.7778226429606665</v>
+        <v>1.234249867146889</v>
       </c>
       <c r="R4">
-        <v>7.000403786645999</v>
+        <v>11.108248804322</v>
       </c>
       <c r="S4">
-        <v>0.001077308639295213</v>
+        <v>0.001569362144748324</v>
       </c>
       <c r="T4">
-        <v>0.001077308639295213</v>
+        <v>0.001569362144748324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01542466666666666</v>
+        <v>0.02923533333333334</v>
       </c>
       <c r="H5">
-        <v>0.046274</v>
+        <v>0.08770600000000001</v>
       </c>
       <c r="I5">
-        <v>0.006030344593912184</v>
+        <v>0.01201286672177323</v>
       </c>
       <c r="J5">
-        <v>0.006030344593912185</v>
+        <v>0.01201286672177324</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>0.2470735549231111</v>
+        <v>0.3991085600424444</v>
       </c>
       <c r="R5">
-        <v>2.223661994308</v>
+        <v>3.591977040382</v>
       </c>
       <c r="S5">
-        <v>0.0003422045856712197</v>
+        <v>0.000507470879639223</v>
       </c>
       <c r="T5">
-        <v>0.0003422045856712197</v>
+        <v>0.000507470879639223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01542466666666666</v>
+        <v>0.02923533333333334</v>
       </c>
       <c r="H6">
-        <v>0.046274</v>
+        <v>0.08770600000000001</v>
       </c>
       <c r="I6">
-        <v>0.006030344593912184</v>
+        <v>0.01201286672177323</v>
       </c>
       <c r="J6">
-        <v>0.006030344593912185</v>
+        <v>0.01201286672177324</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>0.3024675639026667</v>
+        <v>0.5314517783688889</v>
       </c>
       <c r="R6">
-        <v>2.722208075124</v>
+        <v>4.78306600532</v>
       </c>
       <c r="S6">
-        <v>0.0004189270171650141</v>
+        <v>0.0006757467227112538</v>
       </c>
       <c r="T6">
-        <v>0.000418927017165014</v>
+        <v>0.0006757467227112538</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01542466666666666</v>
+        <v>0.02923533333333334</v>
       </c>
       <c r="H7">
-        <v>0.046274</v>
+        <v>0.08770600000000001</v>
       </c>
       <c r="I7">
-        <v>0.006030344593912184</v>
+        <v>0.01201286672177323</v>
       </c>
       <c r="J7">
-        <v>0.006030344593912185</v>
+        <v>0.01201286672177324</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>0.9853896058539999</v>
+        <v>3.565164273455112</v>
       </c>
       <c r="R7">
-        <v>8.868506452685999</v>
+        <v>32.086478461096</v>
       </c>
       <c r="S7">
-        <v>0.001364795361854619</v>
+        <v>0.004533145191664619</v>
       </c>
       <c r="T7">
-        <v>0.001364795361854619</v>
+        <v>0.00453314519166462</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>2.101145666666667</v>
       </c>
       <c r="H8">
-        <v>6.303437</v>
+        <v>6.303437000000001</v>
       </c>
       <c r="I8">
-        <v>0.8214525918661892</v>
+        <v>0.8633656599331188</v>
       </c>
       <c r="J8">
-        <v>0.8214525918661892</v>
+        <v>0.8633656599331188</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>204.6933397988757</v>
+        <v>193.8370142996024</v>
       </c>
       <c r="R8">
-        <v>1842.240058189881</v>
+        <v>1744.533128696421</v>
       </c>
       <c r="S8">
-        <v>0.2835066648769066</v>
+        <v>0.2464658742042485</v>
       </c>
       <c r="T8">
-        <v>0.2835066648769065</v>
+        <v>0.2464658742042484</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>2.101145666666667</v>
       </c>
       <c r="H9">
-        <v>6.303437</v>
+        <v>6.303437000000001</v>
       </c>
       <c r="I9">
-        <v>0.8214525918661892</v>
+        <v>0.8633656599331188</v>
       </c>
       <c r="J9">
-        <v>0.8214525918661892</v>
+        <v>0.8633656599331188</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
-        <v>73.35695827473533</v>
+        <v>73.35695827473535</v>
       </c>
       <c r="R9">
-        <v>660.212624472618</v>
+        <v>660.2126244726181</v>
       </c>
       <c r="S9">
-        <v>0.1016016769593929</v>
+        <v>0.09327417116630814</v>
       </c>
       <c r="T9">
-        <v>0.1016016769593929</v>
+        <v>0.09327417116630814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>2.101145666666667</v>
       </c>
       <c r="H10">
-        <v>6.303437</v>
+        <v>6.303437000000001</v>
       </c>
       <c r="I10">
-        <v>0.8214525918661892</v>
+        <v>0.8633656599331188</v>
       </c>
       <c r="J10">
-        <v>0.8214525918661892</v>
+        <v>0.8633656599331188</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>105.9548780541136</v>
+        <v>88.70563336395215</v>
       </c>
       <c r="R10">
-        <v>953.5939024870229</v>
+        <v>798.3507002755692</v>
       </c>
       <c r="S10">
-        <v>0.1467508133585405</v>
+        <v>0.1127901786605927</v>
       </c>
       <c r="T10">
-        <v>0.1467508133585405</v>
+        <v>0.1127901786605927</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>2.101145666666667</v>
       </c>
       <c r="H11">
-        <v>6.303437</v>
+        <v>6.303437000000001</v>
       </c>
       <c r="I11">
-        <v>0.8214525918661892</v>
+        <v>0.8633656599331188</v>
       </c>
       <c r="J11">
-        <v>0.8214525918661892</v>
+        <v>0.8633656599331188</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>33.65632078108378</v>
+        <v>28.68396306282656</v>
       </c>
       <c r="R11">
-        <v>302.906887029754</v>
+        <v>258.155667565439</v>
       </c>
       <c r="S11">
-        <v>0.04661505482321901</v>
+        <v>0.03647197134905737</v>
       </c>
       <c r="T11">
-        <v>0.046615054823219</v>
+        <v>0.03647197134905736</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>2.101145666666667</v>
       </c>
       <c r="H12">
-        <v>6.303437</v>
+        <v>6.303437000000001</v>
       </c>
       <c r="I12">
-        <v>0.8214525918661892</v>
+        <v>0.8633656599331188</v>
       </c>
       <c r="J12">
-        <v>0.8214525918661892</v>
+        <v>0.8633656599331188</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>41.20208396948467</v>
+        <v>38.19548039457112</v>
       </c>
       <c r="R12">
-        <v>370.8187557253621</v>
+        <v>343.75932355114</v>
       </c>
       <c r="S12">
-        <v>0.05706617237104174</v>
+        <v>0.04856596919899275</v>
       </c>
       <c r="T12">
-        <v>0.05706617237104172</v>
+        <v>0.04856596919899274</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>2.101145666666667</v>
       </c>
       <c r="H13">
-        <v>6.303437</v>
+        <v>6.303437000000001</v>
       </c>
       <c r="I13">
-        <v>0.8214525918661892</v>
+        <v>0.8633656599331188</v>
       </c>
       <c r="J13">
-        <v>0.8214525918661892</v>
+        <v>0.8633656599331188</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>134.229617084227</v>
+        <v>256.2286319336769</v>
       </c>
       <c r="R13">
-        <v>1208.066553758043</v>
+        <v>2306.057687403092</v>
       </c>
       <c r="S13">
-        <v>0.1859122094770886</v>
+        <v>0.3257974953539194</v>
       </c>
       <c r="T13">
-        <v>0.1859122094770885</v>
+        <v>0.3257974953539194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4412713333333333</v>
+        <v>0.3032873333333334</v>
       </c>
       <c r="H14">
-        <v>1.323814</v>
+        <v>0.9098620000000001</v>
       </c>
       <c r="I14">
-        <v>0.1725170635398986</v>
+        <v>0.124621473345108</v>
       </c>
       <c r="J14">
-        <v>0.1725170635398986</v>
+        <v>0.124621473345108</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>42.98859636933133</v>
+        <v>27.97916969816067</v>
       </c>
       <c r="R14">
-        <v>386.897367323982</v>
+        <v>251.812527283446</v>
       </c>
       <c r="S14">
-        <v>0.05954054780865697</v>
+        <v>0.03557581891200402</v>
       </c>
       <c r="T14">
-        <v>0.05954054780865696</v>
+        <v>0.03557581891200402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4412713333333333</v>
+        <v>0.3032873333333334</v>
       </c>
       <c r="H15">
-        <v>1.323814</v>
+        <v>0.9098620000000001</v>
       </c>
       <c r="I15">
-        <v>0.1725170635398986</v>
+        <v>0.124621473345108</v>
       </c>
       <c r="J15">
-        <v>0.1725170635398986</v>
+        <v>0.124621473345108</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>15.40603457471067</v>
+        <v>10.58862153611867</v>
       </c>
       <c r="R15">
-        <v>138.654311172396</v>
+        <v>95.29759382506802</v>
       </c>
       <c r="S15">
-        <v>0.02133783876674294</v>
+        <v>0.01346354757344595</v>
       </c>
       <c r="T15">
-        <v>0.02133783876674293</v>
+        <v>0.01346354757344595</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4412713333333333</v>
+        <v>0.3032873333333334</v>
       </c>
       <c r="H16">
-        <v>1.323814</v>
+        <v>0.9098620000000001</v>
       </c>
       <c r="I16">
-        <v>0.1725170635398986</v>
+        <v>0.124621473345108</v>
       </c>
       <c r="J16">
-        <v>0.1725170635398986</v>
+        <v>0.124621473345108</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>22.25207469136733</v>
+        <v>12.80410750258823</v>
       </c>
       <c r="R16">
-        <v>200.268672222306</v>
+        <v>115.236967523294</v>
       </c>
       <c r="S16">
-        <v>0.03081981801918905</v>
+        <v>0.01628056210230771</v>
       </c>
       <c r="T16">
-        <v>0.03081981801918904</v>
+        <v>0.01628056210230771</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4412713333333333</v>
+        <v>0.3032873333333334</v>
       </c>
       <c r="H17">
-        <v>1.323814</v>
+        <v>0.9098620000000001</v>
       </c>
       <c r="I17">
-        <v>0.1725170635398986</v>
+        <v>0.124621473345108</v>
       </c>
       <c r="J17">
-        <v>0.1725170635398986</v>
+        <v>0.124621473345108</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>7.068319813220889</v>
+        <v>4.140352001657111</v>
       </c>
       <c r="R17">
-        <v>63.614878318988</v>
+        <v>37.263168014914</v>
       </c>
       <c r="S17">
-        <v>0.009789843570379915</v>
+        <v>0.005264502650791311</v>
       </c>
       <c r="T17">
-        <v>0.009789843570379913</v>
+        <v>0.005264502650791311</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4412713333333333</v>
+        <v>0.3032873333333334</v>
       </c>
       <c r="H18">
-        <v>1.323814</v>
+        <v>0.9098620000000001</v>
       </c>
       <c r="I18">
-        <v>0.1725170635398986</v>
+        <v>0.124621473345108</v>
       </c>
       <c r="J18">
-        <v>0.1725170635398986</v>
+        <v>0.124621473345108</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>8.653040490129335</v>
+        <v>5.513280482182223</v>
       </c>
       <c r="R18">
-        <v>77.87736441116401</v>
+        <v>49.61952433964001</v>
       </c>
       <c r="S18">
-        <v>0.01198473117304072</v>
+        <v>0.007010196162400597</v>
       </c>
       <c r="T18">
-        <v>0.01198473117304071</v>
+        <v>0.007010196162400597</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4412713333333333</v>
+        <v>0.3032873333333334</v>
       </c>
       <c r="H19">
-        <v>1.323814</v>
+        <v>0.9098620000000001</v>
       </c>
       <c r="I19">
-        <v>0.1725170635398986</v>
+        <v>0.124621473345108</v>
       </c>
       <c r="J19">
-        <v>0.1725170635398986</v>
+        <v>0.124621473345108</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N19">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O19">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P19">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q19">
-        <v>28.190183595194</v>
+        <v>36.98501238426578</v>
       </c>
       <c r="R19">
-        <v>253.711652356746</v>
+        <v>332.8651114583921</v>
       </c>
       <c r="S19">
-        <v>0.039044284201889</v>
+        <v>0.04702684594415837</v>
       </c>
       <c r="T19">
-        <v>0.03904428420188898</v>
+        <v>0.04702684594415837</v>
       </c>
     </row>
   </sheetData>
